--- a/pythonExcel.xlsx
+++ b/pythonExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网易云音乐听歌总数" sheetId="1" r:id="rId1"/>
@@ -65,11 +65,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,29 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,9 +94,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +125,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,7 +147,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,39 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,6 +462,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,41 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,75 +524,66 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,28 +938,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.8888888888889" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.4444444444444"/>
+    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="6" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667"/>
+    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667"/>
+    <col min="10" max="10" width="19.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="2:3">
+    <row r="1" s="2" customFormat="1" spans="2:11">
       <c r="B1" s="2">
         <v>42945.5333680556</v>
       </c>
       <c r="C1" s="4">
         <v>42946.0193287037</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2">
+        <v>42947.0010069444</v>
+      </c>
+      <c r="E1" s="2">
+        <v>42948.0053935185</v>
+      </c>
+      <c r="F1" s="2">
+        <v>42949.0024305556</v>
+      </c>
+      <c r="G1" s="2">
+        <v>42950.0049537037</v>
+      </c>
+      <c r="H1" s="2">
+        <v>42951.0002314815</v>
+      </c>
+      <c r="I1" s="2">
+        <v>42952.0003472222</v>
+      </c>
+      <c r="J1" s="2">
+        <v>42952.9925</v>
+      </c>
+      <c r="K1" s="2">
+        <v>42954.0066782407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -969,8 +1000,32 @@
       <c r="C2">
         <v>1794</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1802</v>
+      </c>
+      <c r="E2">
+        <v>1870</v>
+      </c>
+      <c r="F2">
+        <v>1871</v>
+      </c>
+      <c r="G2">
+        <v>1954</v>
+      </c>
+      <c r="H2">
+        <v>1957</v>
+      </c>
+      <c r="I2">
+        <v>1967</v>
+      </c>
+      <c r="J2">
+        <v>1977</v>
+      </c>
+      <c r="K2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -980,8 +1035,32 @@
       <c r="C3">
         <v>4371</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>4399</v>
+      </c>
+      <c r="E3">
+        <v>4415</v>
+      </c>
+      <c r="F3">
+        <v>4425</v>
+      </c>
+      <c r="G3">
+        <v>4469</v>
+      </c>
+      <c r="H3">
+        <v>4471</v>
+      </c>
+      <c r="I3">
+        <v>4476</v>
+      </c>
+      <c r="J3">
+        <v>4482</v>
+      </c>
+      <c r="K3">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1070,32 @@
       <c r="C4">
         <v>484</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>484</v>
+      </c>
+      <c r="E4">
+        <v>486</v>
+      </c>
+      <c r="F4">
+        <v>496</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>502</v>
+      </c>
+      <c r="I4">
+        <v>502</v>
+      </c>
+      <c r="J4">
+        <v>502</v>
+      </c>
+      <c r="K4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1105,32 @@
       <c r="C5">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>113</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <v>113</v>
+      </c>
+      <c r="H5">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>117</v>
+      </c>
+      <c r="J5">
+        <v>117</v>
+      </c>
+      <c r="K5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1013,8 +1140,32 @@
       <c r="C6">
         <v>2558</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>2569</v>
+      </c>
+      <c r="E6">
+        <v>2569</v>
+      </c>
+      <c r="F6">
+        <v>2569</v>
+      </c>
+      <c r="G6">
+        <v>2569</v>
+      </c>
+      <c r="H6">
+        <v>2577</v>
+      </c>
+      <c r="I6">
+        <v>2578</v>
+      </c>
+      <c r="J6">
+        <v>2579</v>
+      </c>
+      <c r="K6">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1024,8 +1175,32 @@
       <c r="C7">
         <v>1461</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1465</v>
+      </c>
+      <c r="E7">
+        <v>1466</v>
+      </c>
+      <c r="F7">
+        <v>1467</v>
+      </c>
+      <c r="G7">
+        <v>1467</v>
+      </c>
+      <c r="H7">
+        <v>1467</v>
+      </c>
+      <c r="I7">
+        <v>1467</v>
+      </c>
+      <c r="J7">
+        <v>1467</v>
+      </c>
+      <c r="K7">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1210,32 @@
       <c r="C8">
         <v>13466</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>13500</v>
+      </c>
+      <c r="E8">
+        <v>13534</v>
+      </c>
+      <c r="F8">
+        <v>13569</v>
+      </c>
+      <c r="G8">
+        <v>13584</v>
+      </c>
+      <c r="H8">
+        <v>13587</v>
+      </c>
+      <c r="I8">
+        <v>13591</v>
+      </c>
+      <c r="J8">
+        <v>13596</v>
+      </c>
+      <c r="K8">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1245,32 @@
       <c r="C9">
         <v>1872</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1876</v>
+      </c>
+      <c r="E9">
+        <v>1883</v>
+      </c>
+      <c r="F9">
+        <v>1885</v>
+      </c>
+      <c r="G9">
+        <v>1894</v>
+      </c>
+      <c r="H9">
+        <v>1894</v>
+      </c>
+      <c r="I9">
+        <v>1895</v>
+      </c>
+      <c r="J9">
+        <v>1896</v>
+      </c>
+      <c r="K9">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1280,32 @@
       <c r="C10">
         <v>1336</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1336</v>
+      </c>
+      <c r="E10">
+        <v>1336</v>
+      </c>
+      <c r="F10">
+        <v>1337</v>
+      </c>
+      <c r="G10">
+        <v>1337</v>
+      </c>
+      <c r="H10">
+        <v>1337</v>
+      </c>
+      <c r="I10">
+        <v>1337</v>
+      </c>
+      <c r="J10">
+        <v>1337</v>
+      </c>
+      <c r="K10">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1315,32 @@
       <c r="C11">
         <v>1483</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1490</v>
+      </c>
+      <c r="E11">
+        <v>1496</v>
+      </c>
+      <c r="F11">
+        <v>1499</v>
+      </c>
+      <c r="G11">
+        <v>1499</v>
+      </c>
+      <c r="H11">
+        <v>1501</v>
+      </c>
+      <c r="I11">
+        <v>1501</v>
+      </c>
+      <c r="J11">
+        <v>1501</v>
+      </c>
+      <c r="K11">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1350,32 @@
       <c r="C12">
         <v>614</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>614</v>
+      </c>
+      <c r="E12">
+        <v>615</v>
+      </c>
+      <c r="F12">
+        <v>618</v>
+      </c>
+      <c r="G12">
+        <v>619</v>
+      </c>
+      <c r="H12">
+        <v>622</v>
+      </c>
+      <c r="I12">
+        <v>622</v>
+      </c>
+      <c r="J12">
+        <v>623</v>
+      </c>
+      <c r="K12">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1090,8 +1385,32 @@
       <c r="C13">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>366</v>
+      </c>
+      <c r="E13">
+        <v>367</v>
+      </c>
+      <c r="F13">
+        <v>368</v>
+      </c>
+      <c r="G13">
+        <v>369</v>
+      </c>
+      <c r="H13">
+        <v>369</v>
+      </c>
+      <c r="I13">
+        <v>369</v>
+      </c>
+      <c r="J13">
+        <v>369</v>
+      </c>
+      <c r="K13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1100,6 +1419,30 @@
       </c>
       <c r="C14">
         <v>4523</v>
+      </c>
+      <c r="D14">
+        <v>4523</v>
+      </c>
+      <c r="E14">
+        <v>4526</v>
+      </c>
+      <c r="F14">
+        <v>4545</v>
+      </c>
+      <c r="G14">
+        <v>4551</v>
+      </c>
+      <c r="H14">
+        <v>4552</v>
+      </c>
+      <c r="I14">
+        <v>4552</v>
+      </c>
+      <c r="J14">
+        <v>4552</v>
+      </c>
+      <c r="K14">
+        <v>4556</v>
       </c>
     </row>
   </sheetData>
@@ -1112,24 +1455,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778"/>
+    <col min="2" max="4" width="10.7777777777778"/>
+    <col min="5" max="10" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
+    <row r="1" s="1" customFormat="1" spans="2:10">
       <c r="B1" s="1">
         <v>42945</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>42946</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42947</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42948</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42949</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42950</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42951</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42952</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1137,8 +1505,40 @@
         <f>网易云音乐听歌总数!C2-网易云音乐听歌总数!B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>网易云音乐听歌总数!D2-网易云音乐听歌总数!C2</f>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>网易云音乐听歌总数!E2-网易云音乐听歌总数!D2</f>
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <f>网易云音乐听歌总数!F2-网易云音乐听歌总数!E2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>网易云音乐听歌总数!G2-网易云音乐听歌总数!F2</f>
+        <v>83</v>
+      </c>
+      <c r="G2">
+        <f>网易云音乐听歌总数!H2-网易云音乐听歌总数!G2</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f>网易云音乐听歌总数!I2-网易云音乐听歌总数!H2</f>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>网易云音乐听歌总数!J2-网易云音乐听歌总数!I2</f>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f>网易云音乐听歌总数!K2-网易云音乐听歌总数!J2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1146,8 +1546,40 @@
         <f>网易云音乐听歌总数!C3-网易云音乐听歌总数!B3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f>网易云音乐听歌总数!D3-网易云音乐听歌总数!C3</f>
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f>网易云音乐听歌总数!E3-网易云音乐听歌总数!D3</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f>网易云音乐听歌总数!F3-网易云音乐听歌总数!E3</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>网易云音乐听歌总数!G3-网易云音乐听歌总数!F3</f>
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <f>网易云音乐听歌总数!H3-网易云音乐听歌总数!G3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>网易云音乐听歌总数!I3-网易云音乐听歌总数!H3</f>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>网易云音乐听歌总数!J3-网易云音乐听歌总数!I3</f>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f>网易云音乐听歌总数!K3-网易云音乐听歌总数!J3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1155,8 +1587,40 @@
         <f>网易云音乐听歌总数!C4-网易云音乐听歌总数!B4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f>网易云音乐听歌总数!D4-网易云音乐听歌总数!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>网易云音乐听歌总数!E4-网易云音乐听歌总数!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>网易云音乐听歌总数!F4-网易云音乐听歌总数!E4</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>网易云音乐听歌总数!G4-网易云音乐听歌总数!F4</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f>网易云音乐听歌总数!H4-网易云音乐听歌总数!G4</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>网易云音乐听歌总数!I4-网易云音乐听歌总数!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>网易云音乐听歌总数!J4-网易云音乐听歌总数!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>网易云音乐听歌总数!K4-网易云音乐听歌总数!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1164,8 +1628,40 @@
         <f>网易云音乐听歌总数!C5-网易云音乐听歌总数!B5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f>网易云音乐听歌总数!D5-网易云音乐听歌总数!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>网易云音乐听歌总数!E5-网易云音乐听歌总数!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>网易云音乐听歌总数!F5-网易云音乐听歌总数!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>网易云音乐听歌总数!G5-网易云音乐听歌总数!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>网易云音乐听歌总数!H5-网易云音乐听歌总数!G5</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>网易云音乐听歌总数!I5-网易云音乐听歌总数!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>网易云音乐听歌总数!J5-网易云音乐听歌总数!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>网易云音乐听歌总数!K5-网易云音乐听歌总数!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1173,8 +1669,40 @@
         <f>网易云音乐听歌总数!C6-网易云音乐听歌总数!B6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f>网易云音乐听歌总数!D6-网易云音乐听歌总数!C6</f>
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f>网易云音乐听歌总数!E6-网易云音乐听歌总数!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>网易云音乐听歌总数!F6-网易云音乐听歌总数!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>网易云音乐听歌总数!G6-网易云音乐听歌总数!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>网易云音乐听歌总数!H6-网易云音乐听歌总数!G6</f>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>网易云音乐听歌总数!I6-网易云音乐听歌总数!H6</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>网易云音乐听歌总数!J6-网易云音乐听歌总数!I6</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>网易云音乐听歌总数!K6-网易云音乐听歌总数!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1182,8 +1710,40 @@
         <f>网易云音乐听歌总数!C7-网易云音乐听歌总数!B7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f>网易云音乐听歌总数!D7-网易云音乐听歌总数!C7</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>网易云音乐听歌总数!E7-网易云音乐听歌总数!D7</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>网易云音乐听歌总数!F7-网易云音乐听歌总数!E7</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>网易云音乐听歌总数!G7-网易云音乐听歌总数!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>网易云音乐听歌总数!H7-网易云音乐听歌总数!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>网易云音乐听歌总数!I7-网易云音乐听歌总数!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>网易云音乐听歌总数!J7-网易云音乐听歌总数!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>网易云音乐听歌总数!K7-网易云音乐听歌总数!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1191,8 +1751,40 @@
         <f>网易云音乐听歌总数!C8-网易云音乐听歌总数!B8</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f>网易云音乐听歌总数!D8-网易云音乐听歌总数!C8</f>
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <f>网易云音乐听歌总数!E8-网易云音乐听歌总数!D8</f>
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <f>网易云音乐听歌总数!F8-网易云音乐听歌总数!E8</f>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>网易云音乐听歌总数!G8-网易云音乐听歌总数!F8</f>
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f>网易云音乐听歌总数!H8-网易云音乐听歌总数!G8</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>网易云音乐听歌总数!I8-网易云音乐听歌总数!H8</f>
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f>网易云音乐听歌总数!J8-网易云音乐听歌总数!I8</f>
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>网易云音乐听歌总数!K8-网易云音乐听歌总数!J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1200,8 +1792,40 @@
         <f>网易云音乐听歌总数!C9-网易云音乐听歌总数!B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f>网易云音乐听歌总数!D9-网易云音乐听歌总数!C9</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>网易云音乐听歌总数!E9-网易云音乐听歌总数!D9</f>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>网易云音乐听歌总数!F9-网易云音乐听歌总数!E9</f>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>网易云音乐听歌总数!G9-网易云音乐听歌总数!F9</f>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f>网易云音乐听歌总数!H9-网易云音乐听歌总数!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>网易云音乐听歌总数!I9-网易云音乐听歌总数!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>网易云音乐听歌总数!J9-网易云音乐听歌总数!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>网易云音乐听歌总数!K9-网易云音乐听歌总数!J9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1209,8 +1833,40 @@
         <f>网易云音乐听歌总数!C10-网易云音乐听歌总数!B10</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f>网易云音乐听歌总数!D10-网易云音乐听歌总数!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>网易云音乐听歌总数!E10-网易云音乐听歌总数!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>网易云音乐听歌总数!F10-网易云音乐听歌总数!E10</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>网易云音乐听歌总数!G10-网易云音乐听歌总数!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>网易云音乐听歌总数!H10-网易云音乐听歌总数!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>网易云音乐听歌总数!I10-网易云音乐听歌总数!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>网易云音乐听歌总数!J10-网易云音乐听歌总数!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>网易云音乐听歌总数!K10-网易云音乐听歌总数!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1218,8 +1874,40 @@
         <f>网易云音乐听歌总数!C11-网易云音乐听歌总数!B11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f>网易云音乐听歌总数!D11-网易云音乐听歌总数!C11</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>网易云音乐听歌总数!E11-网易云音乐听歌总数!D11</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>网易云音乐听歌总数!F11-网易云音乐听歌总数!E11</f>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f>网易云音乐听歌总数!G11-网易云音乐听歌总数!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>网易云音乐听歌总数!H11-网易云音乐听歌总数!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>网易云音乐听歌总数!I11-网易云音乐听歌总数!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>网易云音乐听歌总数!J11-网易云音乐听歌总数!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>网易云音乐听歌总数!K11-网易云音乐听歌总数!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1915,40 @@
         <f>网易云音乐听歌总数!C12-网易云音乐听歌总数!B12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f>网易云音乐听歌总数!D12-网易云音乐听歌总数!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>网易云音乐听歌总数!E12-网易云音乐听歌总数!D12</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>网易云音乐听歌总数!F12-网易云音乐听歌总数!E12</f>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>网易云音乐听歌总数!G12-网易云音乐听歌总数!F12</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>网易云音乐听歌总数!H12-网易云音乐听歌总数!G12</f>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f>网易云音乐听歌总数!I12-网易云音乐听歌总数!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>网易云音乐听歌总数!J12-网易云音乐听歌总数!I12</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>网易云音乐听歌总数!K12-网易云音乐听歌总数!J12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1236,14 +1956,78 @@
         <f>网易云音乐听歌总数!C13-网易云音乐听歌总数!B13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f>网易云音乐听歌总数!D13-网易云音乐听歌总数!C13</f>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f>网易云音乐听歌总数!E13-网易云音乐听歌总数!D13</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>网易云音乐听歌总数!F13-网易云音乐听歌总数!E13</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>网易云音乐听歌总数!G13-网易云音乐听歌总数!F13</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>网易云音乐听歌总数!H13-网易云音乐听歌总数!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>网易云音乐听歌总数!I13-网易云音乐听歌总数!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>网易云音乐听歌总数!J13-网易云音乐听歌总数!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>网易云音乐听歌总数!K13-网易云音乐听歌总数!J13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <f>网易云音乐听歌总数!C14-网易云音乐听歌总数!B14</f>
         <v>0</v>
+      </c>
+      <c r="C14">
+        <f>网易云音乐听歌总数!D14-网易云音乐听歌总数!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>网易云音乐听歌总数!E14-网易云音乐听歌总数!D14</f>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>网易云音乐听歌总数!F14-网易云音乐听歌总数!E14</f>
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <f>网易云音乐听歌总数!G14-网易云音乐听歌总数!F14</f>
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f>网易云音乐听歌总数!H14-网易云音乐听歌总数!G14</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>网易云音乐听歌总数!I14-网易云音乐听歌总数!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>网易云音乐听歌总数!J14-网易云音乐听歌总数!I14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>网易云音乐听歌总数!K14-网易云音乐听歌总数!J14</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
